--- a/Input/output.xlsx
+++ b/Input/output.xlsx
@@ -68,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -78,13 +78,19 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
     </row>
